--- a/docs/Front/Gantt.xlsx
+++ b/docs/Front/Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungwooseop/College/Lecture/4-1/클라우드컴퓨팅/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8C7F42-A239-4B7D-8E29-998E0AA648DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681883D6-41E2-1E41-8A2C-8BE77BD0D841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23340" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="갠트 차트 템플릿" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+  <si>
+    <t>Smartsheet 
+도움말 ➜</t>
+  </si>
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -185,10 +189,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>Implement Dataflow to screens</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>Quality Management</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -197,12 +197,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.3.</t>
-  </si>
-  <si>
-    <t>1.2.4.</t>
-  </si>
-  <si>
     <t>1.2.5.</t>
   </si>
   <si>
@@ -227,48 +221,6 @@
   </si>
   <si>
     <t>State 관리방식 단일화</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dataflow </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">확인 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>(수정사항 &amp; 문제점 체크)</t>
-    </r>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dataflow </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>수정 (필요 시)</t>
-    </r>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dataflow에 맞게 Provider 재설정</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
@@ -585,71 +537,31 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정우섭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박현찬</t>
-    </r>
+    <t>갠트 차트의 시각적 타임라인을 사용하면 각 작업의 세부정보는 물론 프로젝트 간의 상호 의존성을 확인할 수 있습니다.</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정우섭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박현찬</t>
-    </r>
+    <t>1.2.4.</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>미정</t>
+    <t>1.2.3.</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>API에 맞게 Provider 생성 및 수정</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>API연결</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현된 API 확인 및 로컬서버 세팅</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement API to screens</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +573,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -914,41 +826,6 @@
       <color rgb="FF0B5394"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="바탕"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="맑은 고딕"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Arial Unicode MS"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1359,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1568,6 +1445,9 @@
     <xf numFmtId="0" fontId="33" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,89 +1472,28 @@
     <xf numFmtId="0" fontId="38" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1683,9 +1502,8 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1702,33 +1520,86 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2089,22 +1960,22 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ33"/>
+  <dimension ref="A1:BQ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="114" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="9" max="68" width="3.42578125" customWidth="1"/>
-    <col min="69" max="69" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="9" max="68" width="3.5" customWidth="1"/>
+    <col min="69" max="69" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="21" customHeight="1">
@@ -2178,42 +2049,46 @@
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:69" ht="41.25">
+    <row r="2" spans="1:69" ht="41">
       <c r="A2" s="1"/>
-      <c r="B2" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
+      <c r="B2" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="119"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="119"/>
+      <c r="I2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -2324,41 +2199,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
+      <c r="B4" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="122" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="111"/>
+      <c r="I4" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2403,40 +2278,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
+      <c r="B5" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="121">
+      <c r="I5" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="86">
         <v>45019</v>
       </c>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="111"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2624,376 +2499,376 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="108" t="s">
+      <c r="B8" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="C8" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="D8" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="E8" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="108" t="s">
+      <c r="F8" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="108" t="s">
+      <c r="G8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="H8" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="92" t="s">
+      <c r="I8" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="94"/>
-      <c r="AR8" s="97" t="s">
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="98"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="98"/>
-      <c r="BA8" s="98"/>
-      <c r="BB8" s="98"/>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="99"/>
-      <c r="BF8" s="105" t="s">
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="111"/>
+      <c r="AM8" s="111"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="BG8" s="106"/>
-      <c r="BH8" s="106"/>
-      <c r="BI8" s="106"/>
-      <c r="BJ8" s="106"/>
-      <c r="BK8" s="106"/>
-      <c r="BL8" s="106"/>
-      <c r="BM8" s="106"/>
-      <c r="BN8" s="106"/>
-      <c r="BO8" s="106"/>
-      <c r="BP8" s="107"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="116"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="116"/>
+      <c r="AZ8" s="116"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="116"/>
+      <c r="BC8" s="116"/>
+      <c r="BD8" s="116"/>
+      <c r="BE8" s="117"/>
+      <c r="BF8" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG8" s="124"/>
+      <c r="BH8" s="124"/>
+      <c r="BI8" s="124"/>
+      <c r="BJ8" s="124"/>
+      <c r="BK8" s="124"/>
+      <c r="BL8" s="124"/>
+      <c r="BM8" s="124"/>
+      <c r="BN8" s="124"/>
+      <c r="BO8" s="124"/>
+      <c r="BP8" s="125"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="83" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ9" s="109"/>
+      <c r="AK9" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL9" s="108"/>
+      <c r="AM9" s="108"/>
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="109"/>
+      <c r="AR9" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS9" s="121"/>
+      <c r="AT9" s="121"/>
+      <c r="AU9" s="121"/>
+      <c r="AV9" s="121"/>
+      <c r="AW9" s="121"/>
+      <c r="AX9" s="122"/>
+      <c r="AY9" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ9" s="119"/>
+      <c r="BA9" s="119"/>
+      <c r="BB9" s="119"/>
+      <c r="BC9" s="119"/>
+      <c r="BD9" s="119"/>
+      <c r="BE9" s="119"/>
+      <c r="BF9" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG9" s="94"/>
+      <c r="BH9" s="94"/>
+      <c r="BI9" s="94"/>
+      <c r="BJ9" s="94"/>
+      <c r="BK9" s="94"/>
+      <c r="BL9" s="95"/>
+      <c r="BM9" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS9" s="103"/>
-      <c r="AT9" s="103"/>
-      <c r="AU9" s="103"/>
-      <c r="AV9" s="103"/>
-      <c r="AW9" s="103"/>
-      <c r="AX9" s="104"/>
-      <c r="AY9" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ9" s="101"/>
-      <c r="BA9" s="101"/>
-      <c r="BB9" s="101"/>
-      <c r="BC9" s="101"/>
-      <c r="BD9" s="101"/>
-      <c r="BE9" s="101"/>
-      <c r="BF9" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG9" s="113"/>
-      <c r="BH9" s="113"/>
-      <c r="BI9" s="113"/>
-      <c r="BJ9" s="113"/>
-      <c r="BK9" s="113"/>
-      <c r="BL9" s="114"/>
-      <c r="BM9" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN9" s="81"/>
-      <c r="BO9" s="81"/>
-      <c r="BP9" s="82"/>
+      <c r="BN9" s="100"/>
+      <c r="BO9" s="100"/>
+      <c r="BP9" s="101"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="Q10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="R10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="S10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="27" t="s">
+      <c r="T10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC10" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="AS10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="AT10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="27" t="s">
+      <c r="AU10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="U10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="X10" s="73" t="s">
+      <c r="AV10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW10" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX10" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" s="73" t="s">
+      <c r="AZ10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Z10" s="73" t="s">
+      <c r="BA10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AA10" s="73" t="s">
+      <c r="BB10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC10" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD10" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE10" s="73" t="s">
+      <c r="BC10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD10" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE10" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AF10" s="73" t="s">
+      <c r="BG10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AG10" s="73" t="s">
+      <c r="BH10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AH10" s="73" t="s">
+      <c r="BI10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AI10" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK10" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL10" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM10" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN10" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO10" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP10" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS10" s="29" t="s">
+      <c r="BJ10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK10" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL10" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AT10" s="29" t="s">
+      <c r="BN10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AU10" s="29" t="s">
+      <c r="BO10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AV10" s="29" t="s">
+      <c r="BP10" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="AW10" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX10" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="AZ10" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD10" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE10" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="BI10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="BJ10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="BK10" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="BL10" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="BN10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="BO10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="BP10" s="30" t="s">
-        <v>18</v>
       </c>
       <c r="BQ10" s="26"/>
     </row>
@@ -3003,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -3078,10 +2953,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="40">
         <v>45019</v>
@@ -3090,7 +2965,7 @@
         <v>45021</v>
       </c>
       <c r="G12" s="41">
-        <f t="shared" ref="G12:G18" si="0">DAYS360(E12,F12)</f>
+        <f t="shared" ref="G12:G19" si="0">DAYS360(E12,F12)</f>
         <v>2</v>
       </c>
       <c r="H12" s="42">
@@ -3164,10 +3039,10 @@
         <v>1.2</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E13" s="40">
         <v>45021</v>
@@ -3176,11 +3051,11 @@
         <v>45044</v>
       </c>
       <c r="G13" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G13" si="1">DAYS360(E13,F13)</f>
         <v>23</v>
       </c>
       <c r="H13" s="42">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="52"/>
@@ -3246,54 +3121,54 @@
     </row>
     <row r="14" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A14" s="37"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>37</v>
-      </c>
       <c r="D14" s="68" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" s="40">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="F14" s="40">
-        <v>45025</v>
+        <v>45044</v>
       </c>
       <c r="G14" s="41">
-        <f>DAYS360(E14,F14)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="H14" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="K14" s="46"/>
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
       <c r="N14" s="46"/>
       <c r="O14" s="46"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="28"/>
       <c r="AK14" s="53"/>
@@ -3333,13 +3208,13 @@
     <row r="15" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A15" s="37"/>
       <c r="B15" s="69" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E15" s="40">
         <v>45022</v>
@@ -3348,11 +3223,11 @@
         <v>45025</v>
       </c>
       <c r="G15" s="41">
-        <f t="shared" si="0"/>
+        <f>DAYS360(E15,F15)</f>
         <v>3</v>
       </c>
       <c r="H15" s="42">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="52"/>
@@ -3419,37 +3294,37 @@
     <row r="16" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A16" s="37"/>
       <c r="B16" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E16" s="40">
-        <v>45026</v>
+        <v>45022</v>
       </c>
       <c r="F16" s="40">
-        <v>45028</v>
+        <v>45025</v>
       </c>
       <c r="G16" s="41">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="52"/>
       <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="47"/>
       <c r="T16" s="47"/>
       <c r="U16" s="47"/>
@@ -3505,13 +3380,13 @@
     <row r="17" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A17" s="37"/>
       <c r="B17" s="69" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E17" s="40">
         <v>45029</v>
@@ -3520,11 +3395,11 @@
         <v>45044</v>
       </c>
       <c r="G17" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G17:G18" si="2">DAYS360(E17,F17)</f>
         <v>15</v>
       </c>
       <c r="H17" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="52"/>
@@ -3591,293 +3466,293 @@
     <row r="18" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A18" s="37"/>
       <c r="B18" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>44</v>
       </c>
       <c r="E18" s="40">
-        <v>45022</v>
-      </c>
-      <c r="F18" s="59">
-        <v>45044</v>
-      </c>
-      <c r="G18" s="60">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>45026</v>
+      </c>
+      <c r="F18" s="40">
+        <v>45028</v>
+      </c>
+      <c r="G18" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="H18" s="42">
         <v>0</v>
       </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="46"/>
       <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
       <c r="AI18" s="28"/>
       <c r="AJ18" s="28"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="63"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="63"/>
-      <c r="AP18" s="63"/>
-      <c r="AQ18" s="63"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="64"/>
-      <c r="AU18" s="64"/>
-      <c r="AV18" s="64"/>
+      <c r="AK18" s="53"/>
+      <c r="AL18" s="53"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="53"/>
+      <c r="AR18" s="55"/>
+      <c r="AS18" s="55"/>
+      <c r="AT18" s="55"/>
+      <c r="AU18" s="55"/>
+      <c r="AV18" s="55"/>
       <c r="AW18" s="48"/>
       <c r="AX18" s="48"/>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
-      <c r="BC18" s="63"/>
-      <c r="BD18" s="63"/>
-      <c r="BE18" s="63"/>
+      <c r="AY18" s="53"/>
+      <c r="AZ18" s="53"/>
+      <c r="BA18" s="53"/>
+      <c r="BB18" s="53"/>
+      <c r="BC18" s="53"/>
+      <c r="BD18" s="53"/>
+      <c r="BE18" s="53"/>
       <c r="BF18" s="49"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="65"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="56"/>
+      <c r="BI18" s="56"/>
+      <c r="BJ18" s="56"/>
+      <c r="BK18" s="56"/>
       <c r="BL18" s="49"/>
-      <c r="BM18" s="63"/>
-      <c r="BN18" s="63"/>
-      <c r="BO18" s="63"/>
-      <c r="BP18" s="66"/>
+      <c r="BM18" s="53"/>
+      <c r="BN18" s="53"/>
+      <c r="BO18" s="53"/>
+      <c r="BP18" s="57"/>
       <c r="BQ18" s="37"/>
     </row>
-    <row r="19" spans="1:69" ht="21" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="31">
+    <row r="19" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="40">
+        <v>45022</v>
+      </c>
+      <c r="F19" s="59">
+        <v>45044</v>
+      </c>
+      <c r="G19" s="60">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H19" s="42">
+        <v>0</v>
+      </c>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="64"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="63"/>
+      <c r="AZ19" s="63"/>
+      <c r="BA19" s="63"/>
+      <c r="BB19" s="63"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="49"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="49"/>
+      <c r="BM19" s="63"/>
+      <c r="BN19" s="63"/>
+      <c r="BO19" s="63"/>
+      <c r="BP19" s="66"/>
+      <c r="BQ19" s="37"/>
+    </row>
+    <row r="20" spans="1:69" ht="21" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="31">
         <v>2</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="34"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="34"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="34"/>
-      <c r="BC19" s="34"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="34"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="21"/>
-    </row>
-    <row r="20" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38">
-        <v>2.1</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="40">
-        <v>45045</v>
-      </c>
-      <c r="F20" s="40">
-        <v>45048</v>
-      </c>
-      <c r="G20" s="41">
-        <f>DAYS360(E20,F20)</f>
-        <v>3</v>
-      </c>
-      <c r="H20" s="42">
-        <v>0</v>
-      </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="45"/>
-      <c r="BD20" s="45"/>
-      <c r="BE20" s="45"/>
-      <c r="BF20" s="49"/>
-      <c r="BG20" s="49"/>
-      <c r="BH20" s="49"/>
-      <c r="BI20" s="49"/>
-      <c r="BJ20" s="49"/>
-      <c r="BK20" s="49"/>
-      <c r="BL20" s="49"/>
-      <c r="BM20" s="45"/>
-      <c r="BN20" s="45"/>
-      <c r="BO20" s="45"/>
-      <c r="BP20" s="50"/>
-      <c r="BQ20" s="37"/>
+      <c r="C20" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="34"/>
+      <c r="AW20" s="34"/>
+      <c r="AX20" s="34"/>
+      <c r="AY20" s="34"/>
+      <c r="AZ20" s="34"/>
+      <c r="BA20" s="34"/>
+      <c r="BB20" s="34"/>
+      <c r="BC20" s="34"/>
+      <c r="BD20" s="34"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="34"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="34"/>
+      <c r="BJ20" s="34"/>
+      <c r="BK20" s="34"/>
+      <c r="BL20" s="34"/>
+      <c r="BM20" s="34"/>
+      <c r="BN20" s="34"/>
+      <c r="BO20" s="34"/>
+      <c r="BP20" s="34"/>
+      <c r="BQ20" s="21"/>
     </row>
     <row r="21" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A21" s="37"/>
       <c r="B21" s="38">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>51</v>
+        <v>2.1</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E21" s="40">
-        <v>45049</v>
+        <v>45045</v>
       </c>
       <c r="F21" s="40">
-        <v>45053</v>
+        <v>45048</v>
       </c>
       <c r="G21" s="41">
         <f>DAYS360(E21,F21)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="42">
-        <v>0</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
       <c r="S21" s="47"/>
       <c r="T21" s="47"/>
       <c r="U21" s="47"/>
       <c r="V21" s="47"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
       <c r="AB21" s="45"/>
       <c r="AC21" s="45"/>
       <c r="AD21" s="47"/>
@@ -3885,29 +3760,29 @@
       <c r="AF21" s="47"/>
       <c r="AG21" s="47"/>
       <c r="AH21" s="47"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="79"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="79"/>
-      <c r="AP21" s="79"/>
-      <c r="AQ21" s="79"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="55"/>
-      <c r="AV21" s="55"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="80"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
       <c r="AW21" s="48"/>
       <c r="AX21" s="48"/>
-      <c r="AY21" s="53"/>
-      <c r="AZ21" s="53"/>
-      <c r="BA21" s="53"/>
-      <c r="BB21" s="53"/>
-      <c r="BC21" s="53"/>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="45"/>
+      <c r="BA21" s="45"/>
+      <c r="BB21" s="45"/>
+      <c r="BC21" s="45"/>
+      <c r="BD21" s="45"/>
+      <c r="BE21" s="45"/>
       <c r="BF21" s="49"/>
       <c r="BG21" s="49"/>
       <c r="BH21" s="49"/>
@@ -3915,202 +3790,202 @@
       <c r="BJ21" s="49"/>
       <c r="BK21" s="49"/>
       <c r="BL21" s="49"/>
-      <c r="BM21" s="53"/>
-      <c r="BN21" s="53"/>
-      <c r="BO21" s="53"/>
-      <c r="BP21" s="57"/>
+      <c r="BM21" s="45"/>
+      <c r="BN21" s="45"/>
+      <c r="BO21" s="45"/>
+      <c r="BP21" s="50"/>
       <c r="BQ21" s="37"/>
     </row>
-    <row r="22" spans="1:69" ht="21" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="31">
+    <row r="22" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="40">
+        <v>45049</v>
+      </c>
+      <c r="F22" s="40">
+        <v>45053</v>
+      </c>
+      <c r="G22" s="41">
+        <f>DAYS360(E22,F22)</f>
+        <v>4</v>
+      </c>
+      <c r="H22" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="80"/>
+      <c r="AN22" s="80"/>
+      <c r="AO22" s="80"/>
+      <c r="AP22" s="80"/>
+      <c r="AQ22" s="80"/>
+      <c r="AR22" s="55"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="55"/>
+      <c r="AV22" s="55"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="53"/>
+      <c r="BA22" s="53"/>
+      <c r="BB22" s="53"/>
+      <c r="BC22" s="53"/>
+      <c r="BD22" s="53"/>
+      <c r="BE22" s="53"/>
+      <c r="BF22" s="49"/>
+      <c r="BG22" s="49"/>
+      <c r="BH22" s="49"/>
+      <c r="BI22" s="49"/>
+      <c r="BJ22" s="49"/>
+      <c r="BK22" s="49"/>
+      <c r="BL22" s="49"/>
+      <c r="BM22" s="53"/>
+      <c r="BN22" s="53"/>
+      <c r="BO22" s="53"/>
+      <c r="BP22" s="57"/>
+      <c r="BQ22" s="37"/>
+    </row>
+    <row r="23" spans="1:69" ht="21" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="31">
         <v>3</v>
       </c>
-      <c r="C22" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="34"/>
-      <c r="AT22" s="34"/>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="34"/>
-      <c r="AW22" s="34"/>
-      <c r="AX22" s="34"/>
-      <c r="AY22" s="34"/>
-      <c r="AZ22" s="34"/>
-      <c r="BA22" s="34"/>
-      <c r="BB22" s="34"/>
-      <c r="BC22" s="34"/>
-      <c r="BD22" s="34"/>
-      <c r="BE22" s="34"/>
-      <c r="BF22" s="34"/>
-      <c r="BG22" s="34"/>
-      <c r="BH22" s="34"/>
-      <c r="BI22" s="34"/>
-      <c r="BJ22" s="34"/>
-      <c r="BK22" s="34"/>
-      <c r="BL22" s="34"/>
-      <c r="BM22" s="34"/>
-      <c r="BN22" s="34"/>
-      <c r="BO22" s="34"/>
-      <c r="BP22" s="34"/>
-      <c r="BQ22" s="21"/>
-    </row>
-    <row r="23" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38">
-        <v>3.1</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="40">
-        <v>45054</v>
-      </c>
-      <c r="F23" s="40">
-        <v>45054</v>
-      </c>
-      <c r="G23" s="41">
-        <f>DAYS360(E23,F23)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="42">
-        <v>0</v>
-      </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="45"/>
-      <c r="AR23" s="78"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="48"/>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
-      <c r="BB23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="45"/>
-      <c r="BE23" s="45"/>
-      <c r="BF23" s="49"/>
-      <c r="BG23" s="49"/>
-      <c r="BH23" s="49"/>
-      <c r="BI23" s="49"/>
-      <c r="BJ23" s="49"/>
-      <c r="BK23" s="49"/>
-      <c r="BL23" s="49"/>
-      <c r="BM23" s="45"/>
-      <c r="BN23" s="45"/>
-      <c r="BO23" s="45"/>
-      <c r="BP23" s="50"/>
-      <c r="BQ23" s="37"/>
+      <c r="C23" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="34"/>
+      <c r="AO23" s="34"/>
+      <c r="AP23" s="34"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="34"/>
+      <c r="AT23" s="34"/>
+      <c r="AU23" s="34"/>
+      <c r="AV23" s="34"/>
+      <c r="AW23" s="34"/>
+      <c r="AX23" s="34"/>
+      <c r="AY23" s="34"/>
+      <c r="AZ23" s="34"/>
+      <c r="BA23" s="34"/>
+      <c r="BB23" s="34"/>
+      <c r="BC23" s="34"/>
+      <c r="BD23" s="34"/>
+      <c r="BE23" s="34"/>
+      <c r="BF23" s="34"/>
+      <c r="BG23" s="34"/>
+      <c r="BH23" s="34"/>
+      <c r="BI23" s="34"/>
+      <c r="BJ23" s="34"/>
+      <c r="BK23" s="34"/>
+      <c r="BL23" s="34"/>
+      <c r="BM23" s="34"/>
+      <c r="BN23" s="34"/>
+      <c r="BO23" s="34"/>
+      <c r="BP23" s="34"/>
+      <c r="BQ23" s="21"/>
     </row>
     <row r="24" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A24" s="37"/>
       <c r="B24" s="38">
-        <v>3.2</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>43</v>
+        <v>3.1</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E24" s="40">
-        <v>45055</v>
+        <v>45068</v>
       </c>
       <c r="F24" s="40">
-        <v>45057</v>
+        <v>45068</v>
       </c>
       <c r="G24" s="41">
-        <f t="shared" ref="G24:G25" si="1">DAYS360(E24,F24)</f>
-        <v>2</v>
+        <f>DAYS360(E24,F24)</f>
+        <v>0</v>
       </c>
       <c r="H24" s="42">
         <v>0</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
       <c r="P24" s="54"/>
@@ -4120,12 +3995,12 @@
       <c r="T24" s="47"/>
       <c r="U24" s="47"/>
       <c r="V24" s="47"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
       <c r="AC24" s="45"/>
       <c r="AD24" s="47"/>
       <c r="AE24" s="47"/>
@@ -4134,27 +4009,27 @@
       <c r="AH24" s="47"/>
       <c r="AI24" s="28"/>
       <c r="AJ24" s="28"/>
-      <c r="AK24" s="53"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="53"/>
-      <c r="AN24" s="53"/>
-      <c r="AO24" s="53"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="78"/>
-      <c r="AT24" s="78"/>
-      <c r="AU24" s="78"/>
-      <c r="AV24" s="55"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="45"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="79"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
       <c r="AW24" s="48"/>
       <c r="AX24" s="48"/>
-      <c r="AY24" s="53"/>
-      <c r="AZ24" s="53"/>
-      <c r="BA24" s="53"/>
-      <c r="BB24" s="53"/>
-      <c r="BC24" s="53"/>
-      <c r="BD24" s="53"/>
-      <c r="BE24" s="53"/>
+      <c r="AY24" s="45"/>
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="45"/>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="45"/>
+      <c r="BD24" s="45"/>
+      <c r="BE24" s="45"/>
       <c r="BF24" s="49"/>
       <c r="BG24" s="49"/>
       <c r="BH24" s="49"/>
@@ -4162,32 +4037,32 @@
       <c r="BJ24" s="49"/>
       <c r="BK24" s="49"/>
       <c r="BL24" s="49"/>
-      <c r="BM24" s="53"/>
-      <c r="BN24" s="53"/>
-      <c r="BO24" s="53"/>
-      <c r="BP24" s="57"/>
+      <c r="BM24" s="45"/>
+      <c r="BN24" s="45"/>
+      <c r="BO24" s="45"/>
+      <c r="BP24" s="50"/>
       <c r="BQ24" s="37"/>
     </row>
     <row r="25" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="37"/>
       <c r="B25" s="38">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E25" s="40">
-        <v>45058</v>
+        <v>45069</v>
       </c>
       <c r="F25" s="40">
-        <v>45067</v>
+        <v>45072</v>
       </c>
       <c r="G25" s="41">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" ref="G25" si="3">DAYS360(E25,F25)</f>
+        <v>3</v>
       </c>
       <c r="H25" s="42">
         <v>0</v>
@@ -4231,16 +4106,16 @@
       <c r="AS25" s="55"/>
       <c r="AT25" s="55"/>
       <c r="AU25" s="55"/>
-      <c r="AV25" s="78"/>
-      <c r="AW25" s="78"/>
-      <c r="AX25" s="78"/>
-      <c r="AY25" s="78"/>
-      <c r="AZ25" s="78"/>
-      <c r="BA25" s="78"/>
-      <c r="BB25" s="78"/>
-      <c r="BC25" s="78"/>
-      <c r="BD25" s="78"/>
-      <c r="BE25" s="78"/>
+      <c r="AV25" s="79"/>
+      <c r="AW25" s="79"/>
+      <c r="AX25" s="79"/>
+      <c r="AY25" s="79"/>
+      <c r="AZ25" s="79"/>
+      <c r="BA25" s="79"/>
+      <c r="BB25" s="79"/>
+      <c r="BC25" s="79"/>
+      <c r="BD25" s="79"/>
+      <c r="BE25" s="79"/>
       <c r="BF25" s="49"/>
       <c r="BG25" s="49"/>
       <c r="BH25" s="49"/>
@@ -4254,193 +4129,196 @@
       <c r="BP25" s="57"/>
       <c r="BQ25" s="37"/>
     </row>
-    <row r="26" spans="1:69" ht="21" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="31">
+    <row r="26" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A26" s="37"/>
+      <c r="B26" s="38">
+        <v>3.3</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="40">
+        <v>45072</v>
+      </c>
+      <c r="F26" s="40">
+        <v>45077</v>
+      </c>
+      <c r="G26" s="41">
+        <f t="shared" ref="G26" si="4">DAYS360(E26,F26)</f>
+        <v>5</v>
+      </c>
+      <c r="H26" s="42">
+        <v>0</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="53"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="55"/>
+      <c r="AS26" s="55"/>
+      <c r="AT26" s="55"/>
+      <c r="AU26" s="55"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="79"/>
+      <c r="BA26" s="79"/>
+      <c r="BB26" s="79"/>
+      <c r="BC26" s="79"/>
+      <c r="BD26" s="79"/>
+      <c r="BE26" s="79"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="53"/>
+      <c r="BN26" s="53"/>
+      <c r="BO26" s="53"/>
+      <c r="BP26" s="57"/>
+      <c r="BQ26" s="37"/>
+    </row>
+    <row r="27" spans="1:69" ht="21" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="31">
         <v>4</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C27" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="34"/>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="34"/>
-      <c r="AU26" s="34"/>
-      <c r="AV26" s="34"/>
-      <c r="AW26" s="34"/>
-      <c r="AX26" s="34"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="34"/>
-      <c r="BA26" s="34"/>
-      <c r="BB26" s="34"/>
-      <c r="BC26" s="34"/>
-      <c r="BD26" s="34"/>
-      <c r="BE26" s="34"/>
-      <c r="BF26" s="34"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="34"/>
-      <c r="BI26" s="34"/>
-      <c r="BJ26" s="34"/>
-      <c r="BK26" s="34"/>
-      <c r="BL26" s="34"/>
-      <c r="BM26" s="34"/>
-      <c r="BN26" s="34"/>
-      <c r="BO26" s="34"/>
-      <c r="BP26" s="34"/>
-      <c r="BQ26" s="21"/>
-    </row>
-    <row r="27" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="40">
-        <v>45068</v>
-      </c>
-      <c r="F27" s="40">
-        <v>45068</v>
-      </c>
-      <c r="G27" s="72">
-        <f>DAYS360(E27,F27)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="42">
-        <v>0</v>
-      </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="47"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="48"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="45"/>
-      <c r="AZ27" s="45"/>
-      <c r="BA27" s="45"/>
-      <c r="BB27" s="45"/>
-      <c r="BC27" s="45"/>
-      <c r="BD27" s="45"/>
-      <c r="BE27" s="45"/>
-      <c r="BF27" s="77"/>
-      <c r="BG27" s="49"/>
-      <c r="BH27" s="49"/>
-      <c r="BI27" s="49"/>
-      <c r="BJ27" s="49"/>
-      <c r="BK27" s="49"/>
-      <c r="BL27" s="49"/>
-      <c r="BM27" s="45"/>
-      <c r="BN27" s="45"/>
-      <c r="BO27" s="45"/>
-      <c r="BP27" s="50"/>
-      <c r="BQ27" s="37"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="34"/>
+      <c r="AW27" s="34"/>
+      <c r="AX27" s="34"/>
+      <c r="AY27" s="34"/>
+      <c r="AZ27" s="34"/>
+      <c r="BA27" s="34"/>
+      <c r="BB27" s="34"/>
+      <c r="BC27" s="34"/>
+      <c r="BD27" s="34"/>
+      <c r="BE27" s="34"/>
+      <c r="BF27" s="34"/>
+      <c r="BG27" s="34"/>
+      <c r="BH27" s="34"/>
+      <c r="BI27" s="34"/>
+      <c r="BJ27" s="34"/>
+      <c r="BK27" s="34"/>
+      <c r="BL27" s="34"/>
+      <c r="BM27" s="34"/>
+      <c r="BN27" s="34"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="34"/>
+      <c r="BQ27" s="21"/>
     </row>
     <row r="28" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A28" s="37"/>
       <c r="B28" s="38">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="125" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="72"/>
+        <v>40</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="40">
+        <v>45078</v>
+      </c>
+      <c r="F28" s="40">
+        <v>45084</v>
+      </c>
+      <c r="G28" s="73">
+        <f>DAYS360(E28,F28)</f>
+        <v>6</v>
+      </c>
       <c r="H28" s="42">
         <v>0</v>
       </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="45"/>
       <c r="O28" s="45"/>
       <c r="P28" s="47"/>
@@ -4450,12 +4328,12 @@
       <c r="T28" s="47"/>
       <c r="U28" s="47"/>
       <c r="V28" s="47"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
       <c r="AC28" s="45"/>
       <c r="AD28" s="47"/>
       <c r="AE28" s="47"/>
@@ -4464,58 +4342,57 @@
       <c r="AH28" s="47"/>
       <c r="AI28" s="28"/>
       <c r="AJ28" s="28"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="53"/>
-      <c r="AQ28" s="53"/>
-      <c r="AR28" s="55"/>
-      <c r="AS28" s="55"/>
-      <c r="AT28" s="55"/>
-      <c r="AU28" s="55"/>
-      <c r="AV28" s="55"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
       <c r="AW28" s="48"/>
       <c r="AX28" s="48"/>
-      <c r="AY28" s="53"/>
-      <c r="AZ28" s="53"/>
-      <c r="BA28" s="53"/>
-      <c r="BB28" s="53"/>
-      <c r="BC28" s="53"/>
-      <c r="BD28" s="53"/>
-      <c r="BE28" s="53"/>
-      <c r="BF28" s="49"/>
-      <c r="BG28" s="56"/>
-      <c r="BH28" s="56"/>
-      <c r="BI28" s="56"/>
-      <c r="BJ28" s="56"/>
-      <c r="BK28" s="56"/>
+      <c r="AY28" s="45"/>
+      <c r="AZ28" s="45"/>
+      <c r="BA28" s="45"/>
+      <c r="BB28" s="45"/>
+      <c r="BC28" s="45"/>
+      <c r="BD28" s="45"/>
+      <c r="BE28" s="45"/>
+      <c r="BF28" s="78"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="49"/>
+      <c r="BK28" s="49"/>
       <c r="BL28" s="49"/>
-      <c r="BM28" s="53"/>
-      <c r="BN28" s="53"/>
-      <c r="BO28" s="53"/>
-      <c r="BP28" s="57"/>
+      <c r="BM28" s="45"/>
+      <c r="BN28" s="45"/>
+      <c r="BO28" s="45"/>
+      <c r="BP28" s="50"/>
       <c r="BQ28" s="37"/>
     </row>
     <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A29" s="37"/>
       <c r="B29" s="38">
-        <v>4.3</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="125" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="72"/>
+        <v>4.2</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73">
+        <f t="shared" ref="G29:G31" si="5">DAYS360(E29,F29)</f>
+        <v>0</v>
+      </c>
       <c r="H29" s="42">
         <v>0</v>
       </c>
@@ -4584,22 +4461,21 @@
     <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="37"/>
       <c r="B30" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="125" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="58">
+        <v>4.3</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="42">
         <v>0</v>
       </c>
       <c r="I30" s="51"/>
@@ -4664,76 +4540,87 @@
       <c r="BP30" s="57"/>
       <c r="BQ30" s="37"/>
     </row>
-    <row r="31" spans="1:69" ht="21" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="21"/>
-      <c r="AL31" s="21"/>
-      <c r="AM31" s="21"/>
-      <c r="AN31" s="21"/>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="21"/>
-      <c r="AQ31" s="21"/>
-      <c r="AR31" s="21"/>
-      <c r="AS31" s="21"/>
-      <c r="AT31" s="21"/>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="21"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="21"/>
-      <c r="BC31" s="21"/>
-      <c r="BD31" s="21"/>
-      <c r="BE31" s="21"/>
-      <c r="BF31" s="21"/>
-      <c r="BG31" s="21"/>
-      <c r="BH31" s="21"/>
-      <c r="BI31" s="21"/>
-      <c r="BJ31" s="21"/>
-      <c r="BK31" s="21"/>
-      <c r="BL31" s="21"/>
-      <c r="BM31" s="21"/>
-      <c r="BN31" s="21"/>
-      <c r="BO31" s="21"/>
-      <c r="BP31" s="21"/>
-      <c r="BQ31" s="21"/>
+    <row r="31" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="58">
+        <v>0</v>
+      </c>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="55"/>
+      <c r="AV31" s="55"/>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="48"/>
+      <c r="AY31" s="53"/>
+      <c r="AZ31" s="53"/>
+      <c r="BA31" s="53"/>
+      <c r="BB31" s="53"/>
+      <c r="BC31" s="53"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="53"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="56"/>
+      <c r="BH31" s="56"/>
+      <c r="BI31" s="56"/>
+      <c r="BJ31" s="56"/>
+      <c r="BK31" s="56"/>
+      <c r="BL31" s="49"/>
+      <c r="BM31" s="53"/>
+      <c r="BN31" s="53"/>
+      <c r="BO31" s="53"/>
+      <c r="BP31" s="57"/>
+      <c r="BQ31" s="37"/>
     </row>
     <row r="32" spans="1:69" ht="21" customHeight="1">
       <c r="A32" s="21"/>
@@ -4877,17 +4764,90 @@
       <c r="BP33" s="21"/>
       <c r="BQ33" s="21"/>
     </row>
+    <row r="34" spans="1:69" ht="21" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="21"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+      <c r="AP34" s="21"/>
+      <c r="AQ34" s="21"/>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="21"/>
+      <c r="AT34" s="21"/>
+      <c r="AU34" s="21"/>
+      <c r="AV34" s="21"/>
+      <c r="AW34" s="21"/>
+      <c r="AX34" s="21"/>
+      <c r="AY34" s="21"/>
+      <c r="AZ34" s="21"/>
+      <c r="BA34" s="21"/>
+      <c r="BB34" s="21"/>
+      <c r="BC34" s="21"/>
+      <c r="BD34" s="21"/>
+      <c r="BE34" s="21"/>
+      <c r="BF34" s="21"/>
+      <c r="BG34" s="21"/>
+      <c r="BH34" s="21"/>
+      <c r="BI34" s="21"/>
+      <c r="BJ34" s="21"/>
+      <c r="BK34" s="21"/>
+      <c r="BL34" s="21"/>
+      <c r="BM34" s="21"/>
+      <c r="BN34" s="21"/>
+      <c r="BO34" s="21"/>
+      <c r="BP34" s="21"/>
+      <c r="BQ34" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="BM9:BP9"/>
+    <mergeCell ref="W9:AC9"/>
+    <mergeCell ref="I8:AH8"/>
+    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="AI8:AQ8"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AR8:BE8"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="AR9:AX9"/>
+    <mergeCell ref="BF8:BP8"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="D5:G5"/>
@@ -4900,31 +4860,29 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="F8:F10"/>
-    <mergeCell ref="BM9:BP9"/>
-    <mergeCell ref="W9:AC9"/>
-    <mergeCell ref="I8:AH8"/>
-    <mergeCell ref="AK9:AQ9"/>
-    <mergeCell ref="AI8:AQ8"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AR8:BE8"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="AR9:AX9"/>
-    <mergeCell ref="BF8:BP8"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="K15">
     <cfRule type="notContainsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(K14))&gt;0</formula>
+      <formula>LEN(TRIM(K15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="K15">
     <cfRule type="notContainsBlanks" dxfId="0" priority="4">
-      <formula>LEN(TRIM(K14))&gt;0</formula>
+      <formula>LEN(TRIM(K15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H30">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="H12:H19 H21:H31">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4933,8 +4891,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H30">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="H12:H19 H21:H31">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
